--- a/day03/data/melon_top100.xlsx
+++ b/day03/data/melon_top100.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>노래제목</t>
+          <t>노래제묵</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>홀씨</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>홀씨</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Smart</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Smart</t>
+          <t>Super Lady</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Super Lady</t>
+          <t>꿈</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>꿈</t>
+          <t>Wife</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>MANIAC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>VIVIZ (비비지)</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAY 4 LUV</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wife</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Do or Die</t>
+          <t>WAY 4 LUV</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MANIAC</t>
+          <t>Get A Guitar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VIVIZ (비비지)</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>Love Lee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Love Lee</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>멜로망스</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>아버지</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Get A Guitar</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Watch Me Woo!</t>
+          <t>Baddie</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>우리 영화</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A bientot</t>
+          <t>Watch Me Woo!</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>관객이 될게 (I stan U)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>버추얼 아이돌</t>
+          <t>사랑할 수밖에</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>볼빨간사춘기</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>사막에서 꽃을 피우듯</t>
+          <t>아버지</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Baddie</t>
+          <t>우리 영화</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
+          <t>You &amp; Me</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>You &amp; Me</t>
+          <t>퀸카 (Queencard)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>사랑할 수밖에</t>
+          <t>Super Shy</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>From</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>퀸카 (Queencard)</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Super Shy</t>
+          <t>버추얼 아이돌</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>후라이의 꿈</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Merry PLLIstmas</t>
+          <t>A bientot</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>후라이의 꿈</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>관객이 될게 (I stan U)</t>
+          <t>그대가 내 안에 박혔다(그내박)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>순순희(기태)</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>ETA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>Yes or No (Feat. 허윤진 of LE SSERAFIM, Crush)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>그루비룸 (GroovyRoom)</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>그대가 내 안에 박혔다(그내박)</t>
+          <t>심(心)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>순순희(기태)</t>
+          <t>DK(디셈버)</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ETA</t>
+          <t>사랑하지 않아서 그랬어</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임한별</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Standing Next to You</t>
+          <t>기억해줘요 내 모든 날과 그때를</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>화곡동 청개구리</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>사랑하지 않아서 그랬어</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>임한별</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>심(心)</t>
+          <t>사랑..그게 뭔데</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DK(디셈버)</t>
+          <t>지아</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>기억해줘요 내 모든 날과 그때를</t>
+          <t>Standing Next to You</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>화곡동 청개구리</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>사랑..그게 뭔데</t>
+          <t>별 떨어진다 (I Do)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>지아</t>
+          <t>디오 (D.O.)</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Yes or No (Feat. 허윤진 of LE SSERAFIM, Crush)</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>그루비룸 (GroovyRoom)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>별 떨어진다 (I Do)</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>디오 (D.O.)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>Spicy</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Spicy</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>김민석</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>I Don't Think That I Like Her</t>
+          <t>Kitsch</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>Steal The Show (From “엘리멘탈”)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>Lauv</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Steal The Show (From “엘리멘탈”)</t>
+          <t>봄이 와도</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lauv</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kitsch</t>
+          <t>파이팅 해야지 (Feat. 이영지)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>Merry PLLIstmas</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>경서예지</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>경서예지</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>파이팅 해야지 (Feat. 이영지)</t>
+          <t>손오공</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>손오공</t>
+          <t>Shh.. (Feat. 혜인(HYEIN), 조원선 &amp; Special Narr. 패티김)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>그중에 그대를 만나</t>
+          <t>Discord</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>물론</t>
+          <t>Dynamite</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>허각</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Shh.. (Feat. 혜인(HYEIN), 조원선 &amp; Special Narr. 패티김)</t>
+          <t>After LIKE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>봄이 와도</t>
+          <t>건물 사이에 피어난 장미 (Rose Blossom)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>H1-KEY (하이키)</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Discord</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>EXO</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>물론</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>허각</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>음악의 신</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>건물 사이에 피어난 장미 (Rose Blossom)</t>
+          <t>EENIE MEENIE (Feat. 홍중(ATEEZ))</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>H1-KEY (하이키)</t>
+          <t>청하</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>음악의 신</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Butter</t>
+          <t>UNFORGIVEN (feat. Nile Rodgers)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>UNFORGIVEN (feat. Nile Rodgers)</t>
+          <t>Swan Song</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
